--- a/output/onkologia/2018/sheets/2018_11_data.xlsx
+++ b/output/onkologia/2018/sheets/2018_11_data.xlsx
@@ -145,7 +145,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="11049000" cy="5943600"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
